--- a/out/production/WinterWeekend2022/java_intermediate/fileIO/xlsx_files/data/StudentData.xlsx
+++ b/out/production/WinterWeekend2022/java_intermediate/fileIO/xlsx_files/data/StudentData.xlsx
@@ -38,7 +38,7 @@
     <t>Parnel</t>
   </si>
   <si>
-    <t>Sami</t>
+    <t>Kamrun</t>
   </si>
 </sst>
 </file>
